--- a/考研英语/考研英语单词.xlsx
+++ b/考研英语/考研英语单词.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +65,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -323,20 +342,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/考研英语/考研英语单词.xlsx
+++ b/考研英语/考研英语单词.xlsx
@@ -19,9 +19,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>day1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifestation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misleading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understatement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>establish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -342,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -350,20 +441,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
